--- a/predictions/прогнозы_SARIMA_211.xlsx
+++ b/predictions/прогнозы_SARIMA_211.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18191454.32165952</v>
+        <v>19236227.23297776</v>
       </c>
       <c r="C2" t="n">
-        <v>22390978.03618269</v>
+        <v>21235345.14941366</v>
       </c>
       <c r="D2" t="n">
-        <v>22762214.78893841</v>
+        <v>19719787.0629016</v>
       </c>
       <c r="E2" t="n">
-        <v>21366881.56226858</v>
+        <v>18190046.23097932</v>
       </c>
       <c r="F2" t="n">
-        <v>19712557.82244324</v>
+        <v>19222637.96290131</v>
       </c>
       <c r="G2" t="n">
-        <v>21162814.05922745</v>
+        <v>19836268.98798291</v>
       </c>
       <c r="H2" t="n">
-        <v>21296803.05090406</v>
+        <v>21729727.31249029</v>
       </c>
       <c r="I2" t="n">
-        <v>23044795.80057804</v>
+        <v>20870850.34147072</v>
       </c>
       <c r="J2" t="n">
-        <v>22201101.30208239</v>
+        <v>21507661.88595457</v>
       </c>
       <c r="K2" t="n">
-        <v>23223094.40450209</v>
+        <v>21786338.78771586</v>
       </c>
       <c r="L2" t="n">
-        <v>22846945.79826494</v>
+        <v>22298230.0573161</v>
       </c>
       <c r="M2" t="n">
-        <v>23259356.24096649</v>
+        <v>18143074.48356209</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13681186.19421279</v>
+        <v>12361073.76225044</v>
       </c>
       <c r="C3" t="n">
-        <v>13960075.91514666</v>
+        <v>15926053.37072369</v>
       </c>
       <c r="D3" t="n">
-        <v>17096298.25374253</v>
+        <v>12435197.79564947</v>
       </c>
       <c r="E3" t="n">
-        <v>15216972.22903595</v>
+        <v>15355734.24633015</v>
       </c>
       <c r="F3" t="n">
-        <v>16367169.02046356</v>
+        <v>12971796.48610586</v>
       </c>
       <c r="G3" t="n">
-        <v>15292469.88933226</v>
+        <v>12752071.26920255</v>
       </c>
       <c r="H3" t="n">
-        <v>14907656.22113645</v>
+        <v>14508517.9142713</v>
       </c>
       <c r="I3" t="n">
-        <v>16081374.00084893</v>
+        <v>17023207.70401973</v>
       </c>
       <c r="J3" t="n">
-        <v>18573375.22062677</v>
+        <v>17189413.6368353</v>
       </c>
       <c r="K3" t="n">
-        <v>18765965.04735543</v>
+        <v>19746601.15369366</v>
       </c>
       <c r="L3" t="n">
-        <v>20987906.95864636</v>
+        <v>19127548.50865922</v>
       </c>
       <c r="M3" t="n">
-        <v>21451384.21675973</v>
+        <v>15262129.06838101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21554504.65519963</v>
+        <v>63663225.10067054</v>
       </c>
       <c r="C4" t="n">
-        <v>25978558.22204942</v>
+        <v>71965713.45760828</v>
       </c>
       <c r="D4" t="n">
-        <v>24015498.45643801</v>
+        <v>80654689.69111781</v>
       </c>
       <c r="E4" t="n">
-        <v>27759829.20262245</v>
+        <v>89988339.21196046</v>
       </c>
       <c r="F4" t="n">
-        <v>26848543.47339651</v>
+        <v>101199376.642089</v>
       </c>
       <c r="G4" t="n">
-        <v>30239797.82412326</v>
+        <v>112539665.8670442</v>
       </c>
       <c r="H4" t="n">
-        <v>30536108.85314228</v>
+        <v>127152394.2958268</v>
       </c>
       <c r="I4" t="n">
-        <v>34285750.40999527</v>
+        <v>138606510.5632314</v>
       </c>
       <c r="J4" t="n">
-        <v>33308793.43848206</v>
+        <v>154385992.2944552</v>
       </c>
       <c r="K4" t="n">
-        <v>39439678.29196793</v>
+        <v>160112429.7328175</v>
       </c>
       <c r="L4" t="n">
-        <v>37317309.86582982</v>
+        <v>178002671.0429897</v>
       </c>
       <c r="M4" t="n">
-        <v>41304998.6962708</v>
+        <v>195183410.1536432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21115540.45136839</v>
+        <v>27091413.4650959</v>
       </c>
       <c r="C5" t="n">
-        <v>19553990.56649227</v>
+        <v>23095197.84045357</v>
       </c>
       <c r="D5" t="n">
-        <v>19508319.14114116</v>
+        <v>28598810.88138153</v>
       </c>
       <c r="E5" t="n">
-        <v>20002682.03336928</v>
+        <v>31717281.33699558</v>
       </c>
       <c r="F5" t="n">
-        <v>21405327.67064312</v>
+        <v>32092291.75746334</v>
       </c>
       <c r="G5" t="n">
-        <v>24813762.71872833</v>
+        <v>29942723.03387411</v>
       </c>
       <c r="H5" t="n">
-        <v>27633136.27909798</v>
+        <v>30985765.26191804</v>
       </c>
       <c r="I5" t="n">
-        <v>35005737.20692399</v>
+        <v>30888973.83280555</v>
       </c>
       <c r="J5" t="n">
-        <v>48720191.01914192</v>
+        <v>33280312.20922812</v>
       </c>
       <c r="K5" t="n">
-        <v>47441459.88447541</v>
+        <v>37875949.18317027</v>
       </c>
       <c r="L5" t="n">
-        <v>47778891.41263395</v>
+        <v>66514099.65437476</v>
       </c>
       <c r="M5" t="n">
-        <v>62097937.84684741</v>
+        <v>15052305.38985729</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6074268.189976629</v>
+        <v>3834912.43393944</v>
       </c>
       <c r="C6" t="n">
-        <v>11561131.70581409</v>
+        <v>5042581.28518966</v>
       </c>
       <c r="D6" t="n">
-        <v>8949185.854503395</v>
+        <v>1808349.390024904</v>
       </c>
       <c r="E6" t="n">
-        <v>9984105.631167762</v>
+        <v>5749142.781451717</v>
       </c>
       <c r="F6" t="n">
-        <v>12932184.20557333</v>
+        <v>183587.1546603367</v>
       </c>
       <c r="G6" t="n">
-        <v>12448564.27776893</v>
+        <v>3078054.380130836</v>
       </c>
       <c r="H6" t="n">
-        <v>11843456.15127435</v>
+        <v>1070816.462454429</v>
       </c>
       <c r="I6" t="n">
-        <v>12571898.80730882</v>
+        <v>1039317.988152221</v>
       </c>
       <c r="J6" t="n">
-        <v>12432448.59432177</v>
+        <v>-1146391.221710336</v>
       </c>
       <c r="K6" t="n">
-        <v>12184520.24622604</v>
+        <v>2086689.898381546</v>
       </c>
       <c r="L6" t="n">
-        <v>14210170.21381994</v>
+        <v>-286815.4572810358</v>
       </c>
       <c r="M6" t="n">
-        <v>24811346.21214512</v>
+        <v>-682795.5750206755</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1136725.968630629</v>
+        <v>15506808.15597509</v>
       </c>
       <c r="C7" t="n">
-        <v>3555225.421916663</v>
+        <v>17056528.5906274</v>
       </c>
       <c r="D7" t="n">
-        <v>2955592.470038583</v>
+        <v>15967144.76902728</v>
       </c>
       <c r="E7" t="n">
-        <v>3297505.938235565</v>
+        <v>16700594.92571889</v>
       </c>
       <c r="F7" t="n">
-        <v>1950962.133534846</v>
+        <v>15514540.21111101</v>
       </c>
       <c r="G7" t="n">
-        <v>4612861.060221341</v>
+        <v>16067247.42870634</v>
       </c>
       <c r="H7" t="n">
-        <v>2698820.549366563</v>
+        <v>15961646.631224</v>
       </c>
       <c r="I7" t="n">
-        <v>3058580.904689331</v>
+        <v>15723580.92153079</v>
       </c>
       <c r="J7" t="n">
-        <v>3517458.513369564</v>
+        <v>16734148.91935791</v>
       </c>
       <c r="K7" t="n">
-        <v>3945802.222907897</v>
+        <v>15399998.25790754</v>
       </c>
       <c r="L7" t="n">
-        <v>3943594.457056525</v>
+        <v>18067482.74139851</v>
       </c>
       <c r="M7" t="n">
-        <v>6195794.348262971</v>
+        <v>17094963.33668598</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1121183.668752804</v>
+        <v>21711747.74146842</v>
       </c>
       <c r="C8" t="n">
-        <v>1523160.02932084</v>
+        <v>22690961.80567995</v>
       </c>
       <c r="D8" t="n">
-        <v>1343342.19367492</v>
+        <v>22348476.70707541</v>
       </c>
       <c r="E8" t="n">
-        <v>1537615.523111717</v>
+        <v>20584643.70409118</v>
       </c>
       <c r="F8" t="n">
-        <v>1463734.875805411</v>
+        <v>20553136.93494433</v>
       </c>
       <c r="G8" t="n">
-        <v>1807753.616374941</v>
+        <v>20480084.60462799</v>
       </c>
       <c r="H8" t="n">
-        <v>1890224.994066577</v>
+        <v>18672702.79670712</v>
       </c>
       <c r="I8" t="n">
-        <v>1824255.399699552</v>
+        <v>19298909.10374712</v>
       </c>
       <c r="J8" t="n">
-        <v>1682237.139404602</v>
+        <v>20072993.16536229</v>
       </c>
       <c r="K8" t="n">
-        <v>2289535.798549569</v>
+        <v>21137183.31540392</v>
       </c>
       <c r="L8" t="n">
-        <v>2544161.515461328</v>
+        <v>24917185.26220865</v>
       </c>
       <c r="M8" t="n">
-        <v>2145782.481226049</v>
+        <v>15823244.08988595</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10340770.84272247</v>
+        <v>23022769.63424509</v>
       </c>
       <c r="C9" t="n">
-        <v>14124140.23507358</v>
+        <v>27076988.70654428</v>
       </c>
       <c r="D9" t="n">
-        <v>16058812.50111281</v>
+        <v>30818906.62972826</v>
       </c>
       <c r="E9" t="n">
-        <v>18720991.81055134</v>
+        <v>31886457.69286209</v>
       </c>
       <c r="F9" t="n">
-        <v>21030954.13920235</v>
+        <v>32369506.55534638</v>
       </c>
       <c r="G9" t="n">
-        <v>21011305.67202429</v>
+        <v>32540146.24531862</v>
       </c>
       <c r="H9" t="n">
-        <v>22354975.17371778</v>
+        <v>34211842.847655</v>
       </c>
       <c r="I9" t="n">
-        <v>23209075.59235735</v>
+        <v>28305797.405397</v>
       </c>
       <c r="J9" t="n">
-        <v>23261114.74095172</v>
+        <v>38086045.63887576</v>
       </c>
       <c r="K9" t="n">
-        <v>27584912.15994709</v>
+        <v>38380091.90777028</v>
       </c>
       <c r="L9" t="n">
-        <v>28496033.05963695</v>
+        <v>41072934.10901372</v>
       </c>
       <c r="M9" t="n">
-        <v>33105907.5680126</v>
+        <v>30095159.20167633</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12961068.38121303</v>
+        <v>16354699.06280076</v>
       </c>
       <c r="C10" t="n">
-        <v>16250207.37543215</v>
+        <v>18502132.02645102</v>
       </c>
       <c r="D10" t="n">
-        <v>16942387.08628057</v>
+        <v>22616462.29272217</v>
       </c>
       <c r="E10" t="n">
-        <v>18561021.70811027</v>
+        <v>25049571.60607328</v>
       </c>
       <c r="F10" t="n">
-        <v>18015652.52211273</v>
+        <v>25596311.6211697</v>
       </c>
       <c r="G10" t="n">
-        <v>17126728.06319887</v>
+        <v>32171317.13284253</v>
       </c>
       <c r="H10" t="n">
-        <v>16610858.2182024</v>
+        <v>30560598.06628216</v>
       </c>
       <c r="I10" t="n">
-        <v>17864899.20880556</v>
+        <v>27013209.16558805</v>
       </c>
       <c r="J10" t="n">
-        <v>18199006.00833631</v>
+        <v>27677327.41160193</v>
       </c>
       <c r="K10" t="n">
-        <v>16869807.12887776</v>
+        <v>29376165.59434965</v>
       </c>
       <c r="L10" t="n">
-        <v>19371721.91982121</v>
+        <v>30500176.09887176</v>
       </c>
       <c r="M10" t="n">
-        <v>29283333.51343908</v>
+        <v>25811165.71377066</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-557215.7538391615</v>
+        <v>19306435.33071532</v>
       </c>
       <c r="C11" t="n">
-        <v>426681.2928880235</v>
+        <v>17503190.18940306</v>
       </c>
       <c r="D11" t="n">
-        <v>299320.5943508703</v>
+        <v>19544439.82897289</v>
       </c>
       <c r="E11" t="n">
-        <v>-806385.992701059</v>
+        <v>18604393.4853376</v>
       </c>
       <c r="F11" t="n">
-        <v>5353399.91273401</v>
+        <v>20676485.07559812</v>
       </c>
       <c r="G11" t="n">
-        <v>-1025815.939800795</v>
+        <v>21125363.08358614</v>
       </c>
       <c r="H11" t="n">
-        <v>-418665.0738452597</v>
+        <v>23454562.23453092</v>
       </c>
       <c r="I11" t="n">
-        <v>-536328.5778012291</v>
+        <v>25183765.4624008</v>
       </c>
       <c r="J11" t="n">
-        <v>-83751.1726404127</v>
+        <v>30319772.64182921</v>
       </c>
       <c r="K11" t="n">
-        <v>-1432297.446451759</v>
+        <v>29629239.50662572</v>
       </c>
       <c r="L11" t="n">
-        <v>300525.4305205888</v>
+        <v>26778999.95542294</v>
       </c>
       <c r="M11" t="n">
-        <v>-725493.0822914934</v>
+        <v>25198193.38039512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>437355.2114197551</v>
+        <v>43480621.92509957</v>
       </c>
       <c r="C12" t="n">
-        <v>1253030.555474331</v>
+        <v>27964480.09803847</v>
       </c>
       <c r="D12" t="n">
-        <v>2103560.187181758</v>
+        <v>41072577.30199829</v>
       </c>
       <c r="E12" t="n">
-        <v>434895.4573040823</v>
+        <v>33787628.0918832</v>
       </c>
       <c r="F12" t="n">
-        <v>62025.82041481859</v>
+        <v>39596296.81124945</v>
       </c>
       <c r="G12" t="n">
-        <v>-528561.8242553244</v>
+        <v>44021810.14516589</v>
       </c>
       <c r="H12" t="n">
-        <v>374277.0300667045</v>
+        <v>37590091.44139358</v>
       </c>
       <c r="I12" t="n">
-        <v>-563662.9062292166</v>
+        <v>41494446.55304679</v>
       </c>
       <c r="J12" t="n">
-        <v>-347337.4853043528</v>
+        <v>48381235.33822376</v>
       </c>
       <c r="K12" t="n">
-        <v>-609157.5092022951</v>
+        <v>47228774.38412868</v>
       </c>
       <c r="L12" t="n">
-        <v>-449597.9399325349</v>
+        <v>38369548.56530117</v>
       </c>
       <c r="M12" t="n">
-        <v>-514084.9812270756</v>
+        <v>37516134.74258106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3296323.842022098</v>
+        <v>36451050.73837982</v>
       </c>
       <c r="C13" t="n">
-        <v>3469226.117241309</v>
+        <v>32516563.97342005</v>
       </c>
       <c r="D13" t="n">
-        <v>3668138.148961926</v>
+        <v>37922461.30682987</v>
       </c>
       <c r="E13" t="n">
-        <v>3841567.428410819</v>
+        <v>30043680.5300436</v>
       </c>
       <c r="F13" t="n">
-        <v>4024113.765874444</v>
+        <v>35754555.12650216</v>
       </c>
       <c r="G13" t="n">
-        <v>4192982.048209094</v>
+        <v>37864141.34089869</v>
       </c>
       <c r="H13" t="n">
-        <v>4895273.957151426</v>
+        <v>39499332.31375436</v>
       </c>
       <c r="I13" t="n">
-        <v>4893421.359738305</v>
+        <v>42365130.72278623</v>
       </c>
       <c r="J13" t="n">
-        <v>4902804.505253664</v>
+        <v>42909842.8380912</v>
       </c>
       <c r="K13" t="n">
-        <v>5656390.506153438</v>
+        <v>39567394.95285044</v>
       </c>
       <c r="L13" t="n">
-        <v>5259045.000716023</v>
+        <v>33090502.01811841</v>
       </c>
       <c r="M13" t="n">
-        <v>5683928.320129186</v>
+        <v>33036818.72915628</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7921.643419719083</v>
+        <v>1064179.78623981</v>
       </c>
       <c r="C14" t="n">
-        <v>2277145.636435317</v>
+        <v>1494416.70565824</v>
       </c>
       <c r="D14" t="n">
-        <v>4482588.019572179</v>
+        <v>1249799.175316629</v>
       </c>
       <c r="E14" t="n">
-        <v>2359124.252281467</v>
+        <v>1132909.838189997</v>
       </c>
       <c r="F14" t="n">
-        <v>1306856.854997465</v>
+        <v>1836823.483838735</v>
       </c>
       <c r="G14" t="n">
-        <v>1651491.474239468</v>
+        <v>2968934.061524659</v>
       </c>
       <c r="H14" t="n">
-        <v>720858.4753551732</v>
+        <v>1787512.85028251</v>
       </c>
       <c r="I14" t="n">
-        <v>1595818.410759904</v>
+        <v>2008141.51086435</v>
       </c>
       <c r="J14" t="n">
-        <v>1082333.294990032</v>
+        <v>1693413.550280308</v>
       </c>
       <c r="K14" t="n">
-        <v>2967282.369129451</v>
+        <v>2031092.00034848</v>
       </c>
       <c r="L14" t="n">
-        <v>869847.8239911441</v>
+        <v>2722615.599437141</v>
       </c>
       <c r="M14" t="n">
-        <v>1383107.659518151</v>
+        <v>1222008.225054416</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1360030.303818728</v>
+        <v>4539492.342371245</v>
       </c>
       <c r="C15" t="n">
-        <v>1008380.21796949</v>
+        <v>5490509.778238113</v>
       </c>
       <c r="D15" t="n">
-        <v>1138183.463198796</v>
+        <v>5805058.451311948</v>
       </c>
       <c r="E15" t="n">
-        <v>1346401.606364075</v>
+        <v>4442167.033732535</v>
       </c>
       <c r="F15" t="n">
-        <v>1121221.651253041</v>
+        <v>4815110.723110524</v>
       </c>
       <c r="G15" t="n">
-        <v>1526233.831706729</v>
+        <v>4205418.187760072</v>
       </c>
       <c r="H15" t="n">
-        <v>1202662.369011708</v>
+        <v>5870773.033570813</v>
       </c>
       <c r="I15" t="n">
-        <v>1609835.031218797</v>
+        <v>5718009.194081844</v>
       </c>
       <c r="J15" t="n">
-        <v>1410123.890072198</v>
+        <v>5634795.960785976</v>
       </c>
       <c r="K15" t="n">
-        <v>1094904.14591351</v>
+        <v>6775945.64768441</v>
       </c>
       <c r="L15" t="n">
-        <v>1023902.626426587</v>
+        <v>6671501.926176632</v>
       </c>
       <c r="M15" t="n">
-        <v>2486436.144541346</v>
+        <v>5605866.260413627</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1569474.947962158</v>
+        <v>6938403.089250132</v>
       </c>
       <c r="C16" t="n">
-        <v>1585623.57467149</v>
+        <v>4612795.971752169</v>
       </c>
       <c r="D16" t="n">
-        <v>1680344.422634655</v>
+        <v>9594823.240652535</v>
       </c>
       <c r="E16" t="n">
-        <v>1595221.162274897</v>
+        <v>6681869.304950834</v>
       </c>
       <c r="F16" t="n">
-        <v>1728277.834767204</v>
+        <v>8379128.291277299</v>
       </c>
       <c r="G16" t="n">
-        <v>1666435.490718428</v>
+        <v>8083059.399391319</v>
       </c>
       <c r="H16" t="n">
-        <v>1868793.816379923</v>
+        <v>7474243.603517824</v>
       </c>
       <c r="I16" t="n">
-        <v>1780275.9148773</v>
+        <v>9657188.933936266</v>
       </c>
       <c r="J16" t="n">
-        <v>1740725.049800764</v>
+        <v>9961553.479832649</v>
       </c>
       <c r="K16" t="n">
-        <v>1911071.343960569</v>
+        <v>10480533.75019446</v>
       </c>
       <c r="L16" t="n">
-        <v>1752992.376476137</v>
+        <v>11219228.92085513</v>
       </c>
       <c r="M16" t="n">
-        <v>2504297.591978872</v>
+        <v>8222840.738444385</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5682377.404439622</v>
+        <v>6389869.164418635</v>
       </c>
       <c r="C17" t="n">
-        <v>6101837.216464814</v>
+        <v>5014965.894179661</v>
       </c>
       <c r="D17" t="n">
-        <v>6301816.049819319</v>
+        <v>5186860.521606458</v>
       </c>
       <c r="E17" t="n">
-        <v>5888898.936670585</v>
+        <v>5305316.664110668</v>
       </c>
       <c r="F17" t="n">
-        <v>6279635.071780641</v>
+        <v>5866639.434793745</v>
       </c>
       <c r="G17" t="n">
-        <v>5972215.71251458</v>
+        <v>6107121.776908591</v>
       </c>
       <c r="H17" t="n">
-        <v>7154648.037565707</v>
+        <v>6205093.298074967</v>
       </c>
       <c r="I17" t="n">
-        <v>7208933.158859948</v>
+        <v>6549713.714037435</v>
       </c>
       <c r="J17" t="n">
-        <v>7531543.531618362</v>
+        <v>7077733.939074427</v>
       </c>
       <c r="K17" t="n">
-        <v>6921676.777398633</v>
+        <v>7391340.272234078</v>
       </c>
       <c r="L17" t="n">
-        <v>7098288.0509087</v>
+        <v>7020927.506787451</v>
       </c>
       <c r="M17" t="n">
-        <v>6948672.579295889</v>
+        <v>5921350.788308632</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>454645.1986965663</v>
+        <v>4710560.612586799</v>
       </c>
       <c r="C18" t="n">
-        <v>406642.9161738578</v>
+        <v>3205603.637161629</v>
       </c>
       <c r="D18" t="n">
-        <v>1000403.641364282</v>
+        <v>3263534.12327306</v>
       </c>
       <c r="E18" t="n">
-        <v>1420005.659417269</v>
+        <v>4539534.928492283</v>
       </c>
       <c r="F18" t="n">
-        <v>834404.6080066741</v>
+        <v>4195238.631541404</v>
       </c>
       <c r="G18" t="n">
-        <v>881889.2472924276</v>
+        <v>2988609.377188951</v>
       </c>
       <c r="H18" t="n">
-        <v>-152648.0999945475</v>
+        <v>3432210.731618923</v>
       </c>
       <c r="I18" t="n">
-        <v>590857.1911946046</v>
+        <v>3947516.683119315</v>
       </c>
       <c r="J18" t="n">
-        <v>24849.51407981473</v>
+        <v>3484729.733047314</v>
       </c>
       <c r="K18" t="n">
-        <v>141181.1412826414</v>
+        <v>3403406.126376691</v>
       </c>
       <c r="L18" t="n">
-        <v>520458.4161367525</v>
+        <v>3482999.395789805</v>
       </c>
       <c r="M18" t="n">
-        <v>1046921.888199078</v>
+        <v>3063507.266297092</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1686.766587255886</v>
+        <v>7065945.330484296</v>
       </c>
       <c r="C19" t="n">
-        <v>24734.76647643086</v>
+        <v>7965606.660150976</v>
       </c>
       <c r="D19" t="n">
-        <v>187470.9118551437</v>
+        <v>6026306.006438628</v>
       </c>
       <c r="E19" t="n">
-        <v>2683.164474384801</v>
+        <v>5788867.945520178</v>
       </c>
       <c r="F19" t="n">
-        <v>68699.74390564272</v>
+        <v>6400557.245312763</v>
       </c>
       <c r="G19" t="n">
-        <v>-32979.88133598646</v>
+        <v>7220198.685183385</v>
       </c>
       <c r="H19" t="n">
-        <v>31260.5462873353</v>
+        <v>8947240.588805532</v>
       </c>
       <c r="I19" t="n">
-        <v>-14407.48712150982</v>
+        <v>6861259.632580788</v>
       </c>
       <c r="J19" t="n">
-        <v>142620.9914426401</v>
+        <v>8527255.575829191</v>
       </c>
       <c r="K19" t="n">
-        <v>-29075.39134229338</v>
+        <v>7754816.732819567</v>
       </c>
       <c r="L19" t="n">
-        <v>-45616.15371890747</v>
+        <v>7690669.424012247</v>
       </c>
       <c r="M19" t="n">
-        <v>82591.06170883364</v>
+        <v>6475233.911363319</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>822612.7262960152</v>
+        <v>2428536.077486427</v>
       </c>
       <c r="C20" t="n">
-        <v>2662786.739191452</v>
+        <v>2825622.188145813</v>
       </c>
       <c r="D20" t="n">
-        <v>2120999.142001976</v>
+        <v>770215.3876987778</v>
       </c>
       <c r="E20" t="n">
-        <v>2182420.929300823</v>
+        <v>1073070.476877196</v>
       </c>
       <c r="F20" t="n">
-        <v>2152395.515738424</v>
+        <v>2112286.833864829</v>
       </c>
       <c r="G20" t="n">
-        <v>2640386.916025698</v>
+        <v>1111175.127593321</v>
       </c>
       <c r="H20" t="n">
-        <v>1928263.974171476</v>
+        <v>743888.4123472229</v>
       </c>
       <c r="I20" t="n">
-        <v>2445209.495908658</v>
+        <v>1300947.717579835</v>
       </c>
       <c r="J20" t="n">
-        <v>2808992.276465117</v>
+        <v>2109288.687355128</v>
       </c>
       <c r="K20" t="n">
-        <v>2154271.808960301</v>
+        <v>1908077.927263033</v>
       </c>
       <c r="L20" t="n">
-        <v>2408860.891905187</v>
+        <v>809345.7230430581</v>
       </c>
       <c r="M20" t="n">
-        <v>2494297.321636075</v>
+        <v>768636.8178696856</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1128568.787264439</v>
+        <v>3006076.611448317</v>
       </c>
       <c r="C21" t="n">
-        <v>1963995.131363581</v>
+        <v>3017963.650540316</v>
       </c>
       <c r="D21" t="n">
-        <v>1571812.421317339</v>
+        <v>3842255.530219458</v>
       </c>
       <c r="E21" t="n">
-        <v>2128336.868487084</v>
+        <v>3355931.864259586</v>
       </c>
       <c r="F21" t="n">
-        <v>2402786.643547063</v>
+        <v>4157358.760871902</v>
       </c>
       <c r="G21" t="n">
-        <v>1654358.219489398</v>
+        <v>3317358.741488154</v>
       </c>
       <c r="H21" t="n">
-        <v>1796795.308165326</v>
+        <v>3795899.461166407</v>
       </c>
       <c r="I21" t="n">
-        <v>1606597.828899551</v>
+        <v>2943943.74661648</v>
       </c>
       <c r="J21" t="n">
-        <v>1327415.311090784</v>
+        <v>4247125.036359219</v>
       </c>
       <c r="K21" t="n">
-        <v>2161489.809593026</v>
+        <v>4633369.063447604</v>
       </c>
       <c r="L21" t="n">
-        <v>1769657.024385007</v>
+        <v>4632662.377164164</v>
       </c>
       <c r="M21" t="n">
-        <v>1617755.021723366</v>
+        <v>3319794.412916373</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>540669.9119437994</v>
+        <v>9905586.903235782</v>
       </c>
       <c r="C22" t="n">
-        <v>-70473.12957764667</v>
+        <v>11581812.68624722</v>
       </c>
       <c r="D22" t="n">
-        <v>644997.5875707824</v>
+        <v>13310319.22766404</v>
       </c>
       <c r="E22" t="n">
-        <v>316207.0494757333</v>
+        <v>12065965.55073734</v>
       </c>
       <c r="F22" t="n">
-        <v>-210867.4581064578</v>
+        <v>15231399.52598868</v>
       </c>
       <c r="G22" t="n">
-        <v>-330825.221302792</v>
+        <v>12982513.85978037</v>
       </c>
       <c r="H22" t="n">
-        <v>-739161.7173171318</v>
+        <v>12614795.39552236</v>
       </c>
       <c r="I22" t="n">
-        <v>-904812.6799643522</v>
+        <v>16631977.6055567</v>
       </c>
       <c r="J22" t="n">
-        <v>-905084.9745261493</v>
+        <v>14509289.9554657</v>
       </c>
       <c r="K22" t="n">
-        <v>-794575.9989149206</v>
+        <v>15856607.16278018</v>
       </c>
       <c r="L22" t="n">
-        <v>28653.77936151042</v>
+        <v>14021585.49697616</v>
       </c>
       <c r="M22" t="n">
-        <v>613190.7188711683</v>
+        <v>11434081.65771614</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-18707.12694176584</v>
+        <v>8252248.760528473</v>
       </c>
       <c r="C23" t="n">
-        <v>-9311.411228472905</v>
+        <v>7189589.128494308</v>
       </c>
       <c r="D23" t="n">
-        <v>-23156.14900565021</v>
+        <v>7134700.067992495</v>
       </c>
       <c r="E23" t="n">
-        <v>-57030.27504023045</v>
+        <v>6066660.008484198</v>
       </c>
       <c r="F23" t="n">
-        <v>-76572.65384496102</v>
+        <v>7509211.598031443</v>
       </c>
       <c r="G23" t="n">
-        <v>-79542.7964696509</v>
+        <v>7496073.858970383</v>
       </c>
       <c r="H23" t="n">
-        <v>-104545.3241444739</v>
+        <v>10491277.28713284</v>
       </c>
       <c r="I23" t="n">
-        <v>-99922.43645608789</v>
+        <v>8818244.99770977</v>
       </c>
       <c r="J23" t="n">
-        <v>-91470.09082790348</v>
+        <v>7645012.065118672</v>
       </c>
       <c r="K23" t="n">
-        <v>-103234.3320423012</v>
+        <v>8219992.37773088</v>
       </c>
       <c r="L23" t="n">
-        <v>-82881.94632068966</v>
+        <v>7022135.200544015</v>
       </c>
       <c r="M23" t="n">
-        <v>275626.7719040842</v>
+        <v>4418070.94884762</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11276625.77461349</v>
+        <v>10227930.52676028</v>
       </c>
       <c r="C24" t="n">
-        <v>14926286.15396213</v>
+        <v>12562617.34599324</v>
       </c>
       <c r="D24" t="n">
-        <v>16977037.1931216</v>
+        <v>13087142.9838725</v>
       </c>
       <c r="E24" t="n">
-        <v>15549094.90122467</v>
+        <v>10340787.74986556</v>
       </c>
       <c r="F24" t="n">
-        <v>15251614.8181926</v>
+        <v>11980343.90200587</v>
       </c>
       <c r="G24" t="n">
-        <v>15217513.63126067</v>
+        <v>11779516.70716099</v>
       </c>
       <c r="H24" t="n">
-        <v>15788722.34899112</v>
+        <v>10473212.6460233</v>
       </c>
       <c r="I24" t="n">
-        <v>14501588.35069868</v>
+        <v>11767474.33148267</v>
       </c>
       <c r="J24" t="n">
-        <v>14661812.7280992</v>
+        <v>11557263.02488852</v>
       </c>
       <c r="K24" t="n">
-        <v>14774259.50715046</v>
+        <v>14621309.70333601</v>
       </c>
       <c r="L24" t="n">
-        <v>15560828.09510842</v>
+        <v>16790551.25894993</v>
       </c>
       <c r="M24" t="n">
-        <v>17236439.37849079</v>
+        <v>10670528.85582514</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1907968.332418945</v>
+        <v>4563517.406191243</v>
       </c>
       <c r="C25" t="n">
-        <v>2787699.239109939</v>
+        <v>5661410.59418829</v>
       </c>
       <c r="D25" t="n">
-        <v>2751911.226382007</v>
+        <v>5395252.419161295</v>
       </c>
       <c r="E25" t="n">
-        <v>2773094.303662739</v>
+        <v>3961788.702028646</v>
       </c>
       <c r="F25" t="n">
-        <v>2570097.856755327</v>
+        <v>4474460.233380223</v>
       </c>
       <c r="G25" t="n">
-        <v>2577564.54090526</v>
+        <v>5188111.689824019</v>
       </c>
       <c r="H25" t="n">
-        <v>2655729.47017496</v>
+        <v>5844833.520901828</v>
       </c>
       <c r="I25" t="n">
-        <v>2677437.641831666</v>
+        <v>5719569.644838735</v>
       </c>
       <c r="J25" t="n">
-        <v>2246162.268604921</v>
+        <v>5675447.712771546</v>
       </c>
       <c r="K25" t="n">
-        <v>3553741.475528367</v>
+        <v>5710023.870845115</v>
       </c>
       <c r="L25" t="n">
-        <v>3137736.027081959</v>
+        <v>5585242.508372579</v>
       </c>
       <c r="M25" t="n">
-        <v>2597851.452896133</v>
+        <v>4025921.265128605</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10412711.51095677</v>
+        <v>10952047.41693979</v>
       </c>
       <c r="C26" t="n">
-        <v>12264085.31573159</v>
+        <v>10068154.36672742</v>
       </c>
       <c r="D26" t="n">
-        <v>14556477.30368936</v>
+        <v>8817939.502149068</v>
       </c>
       <c r="E26" t="n">
-        <v>17708129.74544023</v>
+        <v>10460814.00980546</v>
       </c>
       <c r="F26" t="n">
-        <v>15422046.03951314</v>
+        <v>8935650.104705557</v>
       </c>
       <c r="G26" t="n">
-        <v>15666458.53252143</v>
+        <v>8446544.182396686</v>
       </c>
       <c r="H26" t="n">
-        <v>14567621.59787618</v>
+        <v>9960922.317641083</v>
       </c>
       <c r="I26" t="n">
-        <v>15101104.02765651</v>
+        <v>10781325.23119822</v>
       </c>
       <c r="J26" t="n">
-        <v>14017524.38388643</v>
+        <v>10665946.02861154</v>
       </c>
       <c r="K26" t="n">
-        <v>14316616.70809064</v>
+        <v>10585723.04081968</v>
       </c>
       <c r="L26" t="n">
-        <v>14635420.94820145</v>
+        <v>11616236.32724949</v>
       </c>
       <c r="M26" t="n">
-        <v>16728645.95244016</v>
+        <v>8155872.724184318</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10576040.36793269</v>
+        <v>3648101.600792711</v>
       </c>
       <c r="C27" t="n">
-        <v>6162038.635112336</v>
+        <v>4071045.200838303</v>
       </c>
       <c r="D27" t="n">
-        <v>11896593.30677851</v>
+        <v>3741943.052711126</v>
       </c>
       <c r="E27" t="n">
-        <v>11862329.7876211</v>
+        <v>3769915.385597254</v>
       </c>
       <c r="F27" t="n">
-        <v>16495018.14933001</v>
+        <v>3793599.505458828</v>
       </c>
       <c r="G27" t="n">
-        <v>17501606.07924407</v>
+        <v>5350932.43116773</v>
       </c>
       <c r="H27" t="n">
-        <v>17282613.80244147</v>
+        <v>4718322.447790234</v>
       </c>
       <c r="I27" t="n">
-        <v>20531746.7235922</v>
+        <v>4911578.978140438</v>
       </c>
       <c r="J27" t="n">
-        <v>13403252.42108387</v>
+        <v>4830320.390872176</v>
       </c>
       <c r="K27" t="n">
-        <v>29774186.15428154</v>
+        <v>5256945.348178001</v>
       </c>
       <c r="L27" t="n">
-        <v>21088856.7039091</v>
+        <v>6910844.580048235</v>
       </c>
       <c r="M27" t="n">
-        <v>23812561.52776501</v>
+        <v>4836574.321553642</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19708429.96826934</v>
+        <v>13700653.83002207</v>
       </c>
       <c r="C28" t="n">
-        <v>21134022.95379321</v>
+        <v>13503023.12923012</v>
       </c>
       <c r="D28" t="n">
-        <v>21447254.22196203</v>
+        <v>11054361.08697012</v>
       </c>
       <c r="E28" t="n">
-        <v>22025251.56107519</v>
+        <v>10026645.97744294</v>
       </c>
       <c r="F28" t="n">
-        <v>20561319.99740884</v>
+        <v>11652299.86324244</v>
       </c>
       <c r="G28" t="n">
-        <v>21554799.5803609</v>
+        <v>15177223.4116763</v>
       </c>
       <c r="H28" t="n">
-        <v>21422186.05345866</v>
+        <v>13132151.78861309</v>
       </c>
       <c r="I28" t="n">
-        <v>21060183.67730942</v>
+        <v>10022013.80272139</v>
       </c>
       <c r="J28" t="n">
-        <v>20999443.61850925</v>
+        <v>9556116.23235973</v>
       </c>
       <c r="K28" t="n">
-        <v>21842415.86301174</v>
+        <v>9147383.325539799</v>
       </c>
       <c r="L28" t="n">
-        <v>21598073.81152709</v>
+        <v>12688092.54874993</v>
       </c>
       <c r="M28" t="n">
-        <v>23238241.20586238</v>
+        <v>10533549.88911862</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21829646.56354077</v>
+        <v>2005891.461492011</v>
       </c>
       <c r="C29" t="n">
-        <v>23116770.88893579</v>
+        <v>2350001.841139184</v>
       </c>
       <c r="D29" t="n">
-        <v>22133382.04948903</v>
+        <v>2634526.311814181</v>
       </c>
       <c r="E29" t="n">
-        <v>23457024.35184667</v>
+        <v>2619429.604078454</v>
       </c>
       <c r="F29" t="n">
-        <v>23167860.5176775</v>
+        <v>3099029.097128471</v>
       </c>
       <c r="G29" t="n">
-        <v>24286612.78737908</v>
+        <v>3004398.849288823</v>
       </c>
       <c r="H29" t="n">
-        <v>25356940.48800334</v>
+        <v>3074791.218977314</v>
       </c>
       <c r="I29" t="n">
-        <v>27186379.26007852</v>
+        <v>3165438.857637985</v>
       </c>
       <c r="J29" t="n">
-        <v>29513882.66070379</v>
+        <v>2922378.918965778</v>
       </c>
       <c r="K29" t="n">
-        <v>33758682.39221686</v>
+        <v>2964092.764772333</v>
       </c>
       <c r="L29" t="n">
-        <v>33611891.92601179</v>
+        <v>2728158.721397604</v>
       </c>
       <c r="M29" t="n">
-        <v>29959287.27302418</v>
+        <v>3193326.380655338</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>39960719.05721615</v>
+        <v>597622.9766645969</v>
       </c>
       <c r="C30" t="n">
-        <v>43465697.88837668</v>
+        <v>384466.5397461571</v>
       </c>
       <c r="D30" t="n">
-        <v>33751378.0356781</v>
+        <v>936231.8515208324</v>
       </c>
       <c r="E30" t="n">
-        <v>43945393.46495727</v>
+        <v>632652.7635548774</v>
       </c>
       <c r="F30" t="n">
-        <v>37987711.43474481</v>
+        <v>497408.8713261339</v>
       </c>
       <c r="G30" t="n">
-        <v>43905013.22186417</v>
+        <v>836521.1094344596</v>
       </c>
       <c r="H30" t="n">
-        <v>47175782.17129008</v>
+        <v>841713.3786945927</v>
       </c>
       <c r="I30" t="n">
-        <v>41560000.47230034</v>
+        <v>631198.6333750845</v>
       </c>
       <c r="J30" t="n">
-        <v>45132868.03288107</v>
+        <v>819420.6291251841</v>
       </c>
       <c r="K30" t="n">
-        <v>52815196.57974645</v>
+        <v>837371.1986176337</v>
       </c>
       <c r="L30" t="n">
-        <v>52043875.94322027</v>
+        <v>1788543.649273995</v>
       </c>
       <c r="M30" t="n">
-        <v>41739375.27671994</v>
+        <v>894126.2811518144</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35991493.64013034</v>
+        <v>2919334.52820284</v>
       </c>
       <c r="C31" t="n">
-        <v>38411011.82193649</v>
+        <v>2615517.872000638</v>
       </c>
       <c r="D31" t="n">
-        <v>31332416.78142135</v>
+        <v>2095675.525887655</v>
       </c>
       <c r="E31" t="n">
-        <v>37841594.79639432</v>
+        <v>1874381.167810614</v>
       </c>
       <c r="F31" t="n">
-        <v>31717839.71085701</v>
+        <v>1689393.528512252</v>
       </c>
       <c r="G31" t="n">
-        <v>36765721.61937099</v>
+        <v>1503717.305865104</v>
       </c>
       <c r="H31" t="n">
-        <v>41070415.88621848</v>
+        <v>1557649.155931592</v>
       </c>
       <c r="I31" t="n">
-        <v>42691641.8038682</v>
+        <v>1613620.870894328</v>
       </c>
       <c r="J31" t="n">
-        <v>44383259.89441822</v>
+        <v>1965942.43149687</v>
       </c>
       <c r="K31" t="n">
-        <v>43742217.72248455</v>
+        <v>1911676.374203919</v>
       </c>
       <c r="L31" t="n">
-        <v>40443167.73083675</v>
+        <v>2441795.549919372</v>
       </c>
       <c r="M31" t="n">
-        <v>37040378.10297143</v>
+        <v>3031837.71159188</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1496704.865428667</v>
+        <v>1565937.127273585</v>
       </c>
       <c r="C32" t="n">
-        <v>1590416.380521328</v>
+        <v>1856475.26393792</v>
       </c>
       <c r="D32" t="n">
-        <v>1775714.798644575</v>
+        <v>1758314.3240762</v>
       </c>
       <c r="E32" t="n">
-        <v>1775339.597508306</v>
+        <v>1848716.940542314</v>
       </c>
       <c r="F32" t="n">
-        <v>1679480.291457956</v>
+        <v>1744198.717837465</v>
       </c>
       <c r="G32" t="n">
-        <v>2310578.980959076</v>
+        <v>1998992.101869371</v>
       </c>
       <c r="H32" t="n">
-        <v>3450183.579601646</v>
+        <v>1987266.092297368</v>
       </c>
       <c r="I32" t="n">
-        <v>2288087.522113401</v>
+        <v>1945048.360696249</v>
       </c>
       <c r="J32" t="n">
-        <v>2501739.985575625</v>
+        <v>2020408.290335466</v>
       </c>
       <c r="K32" t="n">
-        <v>2184608.988798834</v>
+        <v>1821697.017829741</v>
       </c>
       <c r="L32" t="n">
-        <v>2524140.141856069</v>
+        <v>2024543.306366771</v>
       </c>
       <c r="M32" t="n">
-        <v>3214518.651852879</v>
+        <v>1677559.644023746</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5657106.517269992</v>
+        <v>2671778.964734267</v>
       </c>
       <c r="C33" t="n">
-        <v>5855485.026393147</v>
+        <v>2978767.12761208</v>
       </c>
       <c r="D33" t="n">
-        <v>6499137.711112296</v>
+        <v>2908217.34666827</v>
       </c>
       <c r="E33" t="n">
-        <v>6839572.059617614</v>
+        <v>2902642.390914029</v>
       </c>
       <c r="F33" t="n">
-        <v>5474089.443172952</v>
+        <v>3577282.46115642</v>
       </c>
       <c r="G33" t="n">
-        <v>5704960.621593288</v>
+        <v>3850272.584322878</v>
       </c>
       <c r="H33" t="n">
-        <v>5356955.068330668</v>
+        <v>3870204.69156344</v>
       </c>
       <c r="I33" t="n">
-        <v>7042452.316893457</v>
+        <v>3782017.418913679</v>
       </c>
       <c r="J33" t="n">
-        <v>6882032.272216349</v>
+        <v>3804477.940420018</v>
       </c>
       <c r="K33" t="n">
-        <v>6621305.182530904</v>
+        <v>3598559.212195388</v>
       </c>
       <c r="L33" t="n">
-        <v>7818575.025181055</v>
+        <v>3840268.057066531</v>
       </c>
       <c r="M33" t="n">
-        <v>7607516.892639479</v>
+        <v>3698424.68766039</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11038596.43409375</v>
+        <v>2937332.083914595</v>
       </c>
       <c r="C34" t="n">
-        <v>9454735.7309907</v>
+        <v>3097494.542822956</v>
       </c>
       <c r="D34" t="n">
-        <v>9377271.692921709</v>
+        <v>3221379.043379962</v>
       </c>
       <c r="E34" t="n">
-        <v>11950264.11048452</v>
+        <v>3331358.556291034</v>
       </c>
       <c r="F34" t="n">
-        <v>10451768.61552026</v>
+        <v>3443826.095574119</v>
       </c>
       <c r="G34" t="n">
-        <v>11261771.26352926</v>
+        <v>3296875.446152124</v>
       </c>
       <c r="H34" t="n">
-        <v>11866053.43472181</v>
+        <v>3786173.867202745</v>
       </c>
       <c r="I34" t="n">
-        <v>10927841.97929308</v>
+        <v>3650373.904954544</v>
       </c>
       <c r="J34" t="n">
-        <v>12726172.6478194</v>
+        <v>3981871.135949303</v>
       </c>
       <c r="K34" t="n">
-        <v>12658711.65359116</v>
+        <v>3501597.539335207</v>
       </c>
       <c r="L34" t="n">
-        <v>13050339.40204949</v>
+        <v>3757531.171409237</v>
       </c>
       <c r="M34" t="n">
-        <v>13636435.2418963</v>
+        <v>3359339.302403106</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5302991.383737731</v>
+        <v>929326.7409254604</v>
       </c>
       <c r="C35" t="n">
-        <v>6706465.110565009</v>
+        <v>1761513.997613616</v>
       </c>
       <c r="D35" t="n">
-        <v>5671854.368238019</v>
+        <v>1419638.613764044</v>
       </c>
       <c r="E35" t="n">
-        <v>5725593.400926096</v>
+        <v>1318586.438891067</v>
       </c>
       <c r="F35" t="n">
-        <v>5898210.169910368</v>
+        <v>1149582.057892897</v>
       </c>
       <c r="G35" t="n">
-        <v>6531598.022408662</v>
+        <v>1775608.970978299</v>
       </c>
       <c r="H35" t="n">
-        <v>6702864.270087918</v>
+        <v>1564943.883931931</v>
       </c>
       <c r="I35" t="n">
-        <v>6741484.277061989</v>
+        <v>1874579.849486593</v>
       </c>
       <c r="J35" t="n">
-        <v>7264115.006741666</v>
+        <v>1782097.418182165</v>
       </c>
       <c r="K35" t="n">
-        <v>7675766.921771232</v>
+        <v>1282152.448051546</v>
       </c>
       <c r="L35" t="n">
-        <v>8049023.676592756</v>
+        <v>1741764.28372689</v>
       </c>
       <c r="M35" t="n">
-        <v>7567330.03351992</v>
+        <v>1108856.196840141</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3278571.21197874</v>
+        <v>1111814.09935533</v>
       </c>
       <c r="C36" t="n">
-        <v>4444714.603126514</v>
+        <v>915578.2693574394</v>
       </c>
       <c r="D36" t="n">
-        <v>3073939.424692519</v>
+        <v>1197997.899586368</v>
       </c>
       <c r="E36" t="n">
-        <v>3254817.95639248</v>
+        <v>1070529.765554688</v>
       </c>
       <c r="F36" t="n">
-        <v>4442210.145819288</v>
+        <v>1298525.625626216</v>
       </c>
       <c r="G36" t="n">
-        <v>3963418.922276655</v>
+        <v>1164657.645287298</v>
       </c>
       <c r="H36" t="n">
-        <v>3006163.347822598</v>
+        <v>880764.5014990256</v>
       </c>
       <c r="I36" t="n">
-        <v>3250936.769491623</v>
+        <v>828140.3528570896</v>
       </c>
       <c r="J36" t="n">
-        <v>3753211.821167283</v>
+        <v>1023835.035940124</v>
       </c>
       <c r="K36" t="n">
-        <v>3359841.871530452</v>
+        <v>691807.1121049627</v>
       </c>
       <c r="L36" t="n">
-        <v>3346386.065958888</v>
+        <v>684735.5181344887</v>
       </c>
       <c r="M36" t="n">
-        <v>3348625.736664516</v>
+        <v>787244.0077071631</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3145481.749758606</v>
+        <v>3005094.959055041</v>
       </c>
       <c r="C37" t="n">
-        <v>5652175.939360444</v>
+        <v>4266649.239847414</v>
       </c>
       <c r="D37" t="n">
-        <v>7152367.639839533</v>
+        <v>3520848.106471982</v>
       </c>
       <c r="E37" t="n">
-        <v>4789651.317051016</v>
+        <v>3122297.813910658</v>
       </c>
       <c r="F37" t="n">
-        <v>4428916.984160757</v>
+        <v>3462679.739018926</v>
       </c>
       <c r="G37" t="n">
-        <v>4756331.697633239</v>
+        <v>4098673.215704543</v>
       </c>
       <c r="H37" t="n">
-        <v>6095306.309660954</v>
+        <v>4507106.022634606</v>
       </c>
       <c r="I37" t="n">
-        <v>7791811.327808065</v>
+        <v>3757129.34503773</v>
       </c>
       <c r="J37" t="n">
-        <v>5532140.565661123</v>
+        <v>4331456.510821788</v>
       </c>
       <c r="K37" t="n">
-        <v>7187791.690642301</v>
+        <v>3945311.226642728</v>
       </c>
       <c r="L37" t="n">
-        <v>6524918.731479373</v>
+        <v>3268036.18334416</v>
       </c>
       <c r="M37" t="n">
-        <v>6384626.493743497</v>
+        <v>3311916.597998042</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1235102.005177874</v>
+        <v>4408576.470813496</v>
       </c>
       <c r="C38" t="n">
-        <v>2858902.13574958</v>
+        <v>3760626.355682921</v>
       </c>
       <c r="D38" t="n">
-        <v>2860344.986582691</v>
+        <v>4324051.363753094</v>
       </c>
       <c r="E38" t="n">
-        <v>1156981.501584343</v>
+        <v>4646545.571105544</v>
       </c>
       <c r="F38" t="n">
-        <v>1366374.034825551</v>
+        <v>4329608.070026754</v>
       </c>
       <c r="G38" t="n">
-        <v>2791902.62769831</v>
+        <v>4509526.300186581</v>
       </c>
       <c r="H38" t="n">
-        <v>1705803.272038074</v>
+        <v>4441030.868421588</v>
       </c>
       <c r="I38" t="n">
-        <v>1075143.167583463</v>
+        <v>5299183.184695787</v>
       </c>
       <c r="J38" t="n">
-        <v>1596036.323293319</v>
+        <v>5675527.219262104</v>
       </c>
       <c r="K38" t="n">
-        <v>2822871.428436608</v>
+        <v>4264688.875670159</v>
       </c>
       <c r="L38" t="n">
-        <v>2539254.614338449</v>
+        <v>5372883.235161333</v>
       </c>
       <c r="M38" t="n">
-        <v>1491480.511309359</v>
+        <v>3798453.729827094</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4772304.998409197</v>
+        <v>4048829.016527515</v>
       </c>
       <c r="C39" t="n">
-        <v>4240665.397277305</v>
+        <v>5454561.83291983</v>
       </c>
       <c r="D39" t="n">
-        <v>4215267.07663447</v>
+        <v>4679497.773220275</v>
       </c>
       <c r="E39" t="n">
-        <v>4884247.857693431</v>
+        <v>5311499.980128203</v>
       </c>
       <c r="F39" t="n">
-        <v>4476543.653119081</v>
+        <v>4208224.106503941</v>
       </c>
       <c r="G39" t="n">
-        <v>5154668.179060454</v>
+        <v>5408499.253526188</v>
       </c>
       <c r="H39" t="n">
-        <v>4307823.168821028</v>
+        <v>4914878.227540743</v>
       </c>
       <c r="I39" t="n">
-        <v>4787232.61619375</v>
+        <v>5022563.934879921</v>
       </c>
       <c r="J39" t="n">
-        <v>3811916.745418293</v>
+        <v>5808886.621496428</v>
       </c>
       <c r="K39" t="n">
-        <v>5080691.682643293</v>
+        <v>4216069.782912054</v>
       </c>
       <c r="L39" t="n">
-        <v>5541651.302377016</v>
+        <v>4664559.348410288</v>
       </c>
       <c r="M39" t="n">
-        <v>5672623.144453207</v>
+        <v>3947981.466470693</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11512675.46264788</v>
+        <v>4506899.425723061</v>
       </c>
       <c r="C40" t="n">
-        <v>11278651.0457781</v>
+        <v>5289370.240986099</v>
       </c>
       <c r="D40" t="n">
-        <v>12541201.49673373</v>
+        <v>5214720.439042124</v>
       </c>
       <c r="E40" t="n">
-        <v>13876746.32087973</v>
+        <v>5112944.94570695</v>
       </c>
       <c r="F40" t="n">
-        <v>12656315.51124958</v>
+        <v>5439187.693932412</v>
       </c>
       <c r="G40" t="n">
-        <v>15438774.81791227</v>
+        <v>5149098.102560203</v>
       </c>
       <c r="H40" t="n">
-        <v>13596585.25821064</v>
+        <v>5364194.418412792</v>
       </c>
       <c r="I40" t="n">
-        <v>13245290.67210378</v>
+        <v>5293341.04791238</v>
       </c>
       <c r="J40" t="n">
-        <v>16740496.73506544</v>
+        <v>5644703.275838641</v>
       </c>
       <c r="K40" t="n">
-        <v>15235408.82879462</v>
+        <v>5281481.905925051</v>
       </c>
       <c r="L40" t="n">
-        <v>16083141.78301833</v>
+        <v>5621228.789039827</v>
       </c>
       <c r="M40" t="n">
-        <v>14750659.08583845</v>
+        <v>4717527.16177043</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2684307.250841409</v>
+        <v>2102699.169487455</v>
       </c>
       <c r="C41" t="n">
-        <v>6707605.110051908</v>
+        <v>3075904.79121343</v>
       </c>
       <c r="D41" t="n">
-        <v>6326482.981718139</v>
+        <v>3195795.144054406</v>
       </c>
       <c r="E41" t="n">
-        <v>6347663.514414389</v>
+        <v>2459072.109144506</v>
       </c>
       <c r="F41" t="n">
-        <v>5326851.450443504</v>
+        <v>2764463.491053792</v>
       </c>
       <c r="G41" t="n">
-        <v>6474741.14969619</v>
+        <v>3024532.890383005</v>
       </c>
       <c r="H41" t="n">
-        <v>6540105.099747884</v>
+        <v>2834770.74708528</v>
       </c>
       <c r="I41" t="n">
-        <v>9252924.337676657</v>
+        <v>3364525.422331682</v>
       </c>
       <c r="J41" t="n">
-        <v>7665162.41212069</v>
+        <v>3312131.0767213</v>
       </c>
       <c r="K41" t="n">
-        <v>6403155.211037941</v>
+        <v>2763201.303783234</v>
       </c>
       <c r="L41" t="n">
-        <v>7185218.986972747</v>
+        <v>3686822.510108963</v>
       </c>
       <c r="M41" t="n">
-        <v>5786856.467384083</v>
+        <v>2709704.12614707</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7960863.659440664</v>
+        <v>3296030.06027806</v>
       </c>
       <c r="C42" t="n">
-        <v>10220323.35424632</v>
+        <v>3451655.973457587</v>
       </c>
       <c r="D42" t="n">
-        <v>12460129.92088509</v>
+        <v>3581262.695639395</v>
       </c>
       <c r="E42" t="n">
-        <v>13083298.36751833</v>
+        <v>3553373.287190357</v>
       </c>
       <c r="F42" t="n">
-        <v>10189019.33522324</v>
+        <v>3670241.558499929</v>
       </c>
       <c r="G42" t="n">
-        <v>11812236.35285437</v>
+        <v>3648876.035017655</v>
       </c>
       <c r="H42" t="n">
-        <v>11744078.73412459</v>
+        <v>4330379.032462151</v>
       </c>
       <c r="I42" t="n">
-        <v>10306612.00575667</v>
+        <v>4798267.038635708</v>
       </c>
       <c r="J42" t="n">
-        <v>11675325.39055297</v>
+        <v>4319962.86269608</v>
       </c>
       <c r="K42" t="n">
-        <v>11451109.78479889</v>
+        <v>4249094.150892065</v>
       </c>
       <c r="L42" t="n">
-        <v>14700126.89642886</v>
+        <v>4088364.892058625</v>
       </c>
       <c r="M42" t="n">
-        <v>16366814.68250888</v>
+        <v>2996165.153112581</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3566317.89475375</v>
+        <v>1979721.392487063</v>
       </c>
       <c r="C43" t="n">
-        <v>4563203.502066914</v>
+        <v>2915622.366065369</v>
       </c>
       <c r="D43" t="n">
-        <v>5584909.787271398</v>
+        <v>3178940.658413884</v>
       </c>
       <c r="E43" t="n">
-        <v>5341039.529793833</v>
+        <v>2927643.265373582</v>
       </c>
       <c r="F43" t="n">
-        <v>3978623.809240126</v>
+        <v>2878263.729868658</v>
       </c>
       <c r="G43" t="n">
-        <v>4516278.696125888</v>
+        <v>2857639.804632989</v>
       </c>
       <c r="H43" t="n">
-        <v>5148544.765576161</v>
+        <v>2791551.51623209</v>
       </c>
       <c r="I43" t="n">
-        <v>5945806.905720338</v>
+        <v>2451257.643736917</v>
       </c>
       <c r="J43" t="n">
-        <v>5725724.499008031</v>
+        <v>2985384.974579209</v>
       </c>
       <c r="K43" t="n">
-        <v>5634693.765703697</v>
+        <v>2632121.809964888</v>
       </c>
       <c r="L43" t="n">
-        <v>5649545.454307158</v>
+        <v>3335090.780913192</v>
       </c>
       <c r="M43" t="n">
-        <v>5402341.812140979</v>
+        <v>2041821.803591799</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11404534.83922665</v>
+        <v>5369888.50972177</v>
       </c>
       <c r="C44" t="n">
-        <v>15222478.202118</v>
+        <v>6534012.366870921</v>
       </c>
       <c r="D44" t="n">
-        <v>13401800.79586802</v>
+        <v>5387082.620639692</v>
       </c>
       <c r="E44" t="n">
-        <v>11406538.35163837</v>
+        <v>4882742.851996289</v>
       </c>
       <c r="F44" t="n">
-        <v>13035661.36876572</v>
+        <v>5542665.033137497</v>
       </c>
       <c r="G44" t="n">
-        <v>11660469.1873587</v>
+        <v>6472164.35756462</v>
       </c>
       <c r="H44" t="n">
-        <v>11180257.27541203</v>
+        <v>5602441.953056206</v>
       </c>
       <c r="I44" t="n">
-        <v>12781183.61615556</v>
+        <v>6504188.821614699</v>
       </c>
       <c r="J44" t="n">
-        <v>13454462.96887023</v>
+        <v>5805090.000098344</v>
       </c>
       <c r="K44" t="n">
-        <v>13306718.04794662</v>
+        <v>6038835.633709434</v>
       </c>
       <c r="L44" t="n">
-        <v>13455289.36883424</v>
+        <v>6866584.231664697</v>
       </c>
       <c r="M44" t="n">
-        <v>14601309.97281814</v>
+        <v>5544844.477884705</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4321048.15559593</v>
+        <v>2211680.425816472</v>
       </c>
       <c r="C45" t="n">
-        <v>5174949.165964786</v>
+        <v>2738729.309932621</v>
       </c>
       <c r="D45" t="n">
-        <v>5621682.144760483</v>
+        <v>3067448.829161152</v>
       </c>
       <c r="E45" t="n">
-        <v>4904302.433143682</v>
+        <v>2855417.699274651</v>
       </c>
       <c r="F45" t="n">
-        <v>4879090.606776572</v>
+        <v>2455226.834921053</v>
       </c>
       <c r="G45" t="n">
-        <v>4614142.561007862</v>
+        <v>2899465.152393269</v>
       </c>
       <c r="H45" t="n">
-        <v>5842990.626783304</v>
+        <v>2940201.350272034</v>
       </c>
       <c r="I45" t="n">
-        <v>5592501.506491933</v>
+        <v>3256743.772451217</v>
       </c>
       <c r="J45" t="n">
-        <v>5411141.895447469</v>
+        <v>2633771.826953522</v>
       </c>
       <c r="K45" t="n">
-        <v>5263915.19708158</v>
+        <v>2858086.470334652</v>
       </c>
       <c r="L45" t="n">
-        <v>5802374.916482069</v>
+        <v>3129935.068374181</v>
       </c>
       <c r="M45" t="n">
-        <v>7016779.323792173</v>
+        <v>2236971.907618724</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10530153.85028041</v>
+        <v>1548890.308809278</v>
       </c>
       <c r="C46" t="n">
-        <v>15407937.44722039</v>
+        <v>2744628.458344532</v>
       </c>
       <c r="D46" t="n">
-        <v>14959185.3959302</v>
+        <v>2005775.137243475</v>
       </c>
       <c r="E46" t="n">
-        <v>12385695.75817496</v>
+        <v>1973774.800666095</v>
       </c>
       <c r="F46" t="n">
-        <v>11477916.9740023</v>
+        <v>1785470.216820148</v>
       </c>
       <c r="G46" t="n">
-        <v>13049261.26367147</v>
+        <v>1880236.313626449</v>
       </c>
       <c r="H46" t="n">
-        <v>16890652.54780534</v>
+        <v>1730349.301312219</v>
       </c>
       <c r="I46" t="n">
-        <v>14384239.07825744</v>
+        <v>3118056.277434242</v>
       </c>
       <c r="J46" t="n">
-        <v>11452523.2501792</v>
+        <v>2437525.960101533</v>
       </c>
       <c r="K46" t="n">
-        <v>11001942.38100486</v>
+        <v>1533178.295583282</v>
       </c>
       <c r="L46" t="n">
-        <v>10522331.63623283</v>
+        <v>2160410.869925287</v>
       </c>
       <c r="M46" t="n">
-        <v>14012239.12438084</v>
+        <v>1313301.644207414</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2176977.820961518</v>
+        <v>1766436.736756525</v>
       </c>
       <c r="C47" t="n">
-        <v>2306231.685382837</v>
+        <v>1907822.145979989</v>
       </c>
       <c r="D47" t="n">
-        <v>2656245.097739921</v>
+        <v>2603226.836311389</v>
       </c>
       <c r="E47" t="n">
-        <v>2908385.594952567</v>
+        <v>3066314.023077004</v>
       </c>
       <c r="F47" t="n">
-        <v>2915095.302989735</v>
+        <v>2782453.274245305</v>
       </c>
       <c r="G47" t="n">
-        <v>3292499.395053128</v>
+        <v>3072753.168335442</v>
       </c>
       <c r="H47" t="n">
-        <v>3265461.979042691</v>
+        <v>2966880.503108453</v>
       </c>
       <c r="I47" t="n">
-        <v>3153844.853080517</v>
+        <v>3103983.221257363</v>
       </c>
       <c r="J47" t="n">
-        <v>3262930.88304747</v>
+        <v>3390300.127995489</v>
       </c>
       <c r="K47" t="n">
-        <v>3152591.215539858</v>
+        <v>2965199.667501505</v>
       </c>
       <c r="L47" t="n">
-        <v>3248005.558117398</v>
+        <v>3012464.155108765</v>
       </c>
       <c r="M47" t="n">
-        <v>3021587.857497631</v>
+        <v>3133229.799951338</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>508014.3187391937</v>
+        <v>4606305.390094409</v>
       </c>
       <c r="C48" t="n">
-        <v>595723.6411973711</v>
+        <v>4861637.72589399</v>
       </c>
       <c r="D48" t="n">
-        <v>381479.9294061793</v>
+        <v>4715640.271602144</v>
       </c>
       <c r="E48" t="n">
-        <v>935766.1235324743</v>
+        <v>4611829.598642045</v>
       </c>
       <c r="F48" t="n">
-        <v>630311.0827614577</v>
+        <v>4519409.535840895</v>
       </c>
       <c r="G48" t="n">
-        <v>494211.7587429489</v>
+        <v>4549126.759500419</v>
       </c>
       <c r="H48" t="n">
-        <v>835773.5850174576</v>
+        <v>4633566.045510288</v>
       </c>
       <c r="I48" t="n">
-        <v>840585.6361845254</v>
+        <v>5315572.311629961</v>
       </c>
       <c r="J48" t="n">
-        <v>629821.3316774929</v>
+        <v>5572890.578318363</v>
       </c>
       <c r="K48" t="n">
-        <v>817719.1769508326</v>
+        <v>4940916.875707093</v>
       </c>
       <c r="L48" t="n">
-        <v>836048.0453845316</v>
+        <v>5283099.379165507</v>
       </c>
       <c r="M48" t="n">
-        <v>1793234.332124492</v>
+        <v>5129041.976769139</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>838813.5284634831</v>
+        <v>874683.6339010319</v>
       </c>
       <c r="C49" t="n">
-        <v>918865.1547950965</v>
+        <v>1317745.846658432</v>
       </c>
       <c r="D49" t="n">
-        <v>1071422.807414239</v>
+        <v>1451706.903829552</v>
       </c>
       <c r="E49" t="n">
-        <v>1148100.208771208</v>
+        <v>1130618.686308895</v>
       </c>
       <c r="F49" t="n">
-        <v>945840.281128685</v>
+        <v>1148145.28286537</v>
       </c>
       <c r="G49" t="n">
-        <v>888622.0753811628</v>
+        <v>1183127.163608879</v>
       </c>
       <c r="H49" t="n">
-        <v>773493.5691570659</v>
+        <v>1219855.916646522</v>
       </c>
       <c r="I49" t="n">
-        <v>807438.60502557</v>
+        <v>1535599.642602517</v>
       </c>
       <c r="J49" t="n">
-        <v>935199.3682398627</v>
+        <v>1460966.350856586</v>
       </c>
       <c r="K49" t="n">
-        <v>1252602.576899659</v>
+        <v>1131508.018517686</v>
       </c>
       <c r="L49" t="n">
-        <v>1297883.904778721</v>
+        <v>1369443.344389191</v>
       </c>
       <c r="M49" t="n">
-        <v>1565244.599737536</v>
+        <v>1106489.757604876</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1513693.72409499</v>
+        <v>2783892.450399226</v>
       </c>
       <c r="C50" t="n">
-        <v>1615233.54110701</v>
+        <v>2863304.397157801</v>
       </c>
       <c r="D50" t="n">
-        <v>1944373.465128914</v>
+        <v>3220027.810244604</v>
       </c>
       <c r="E50" t="n">
-        <v>1858972.362581155</v>
+        <v>3421566.983919395</v>
       </c>
       <c r="F50" t="n">
-        <v>1918565.778101424</v>
+        <v>3762945.855827416</v>
       </c>
       <c r="G50" t="n">
-        <v>1845911.04365509</v>
+        <v>3370165.542680301</v>
       </c>
       <c r="H50" t="n">
-        <v>2078124.761568313</v>
+        <v>3601423.984088687</v>
       </c>
       <c r="I50" t="n">
-        <v>2076057.57910464</v>
+        <v>3825061.978413892</v>
       </c>
       <c r="J50" t="n">
-        <v>2042387.502549971</v>
+        <v>3660521.9252757</v>
       </c>
       <c r="K50" t="n">
-        <v>2113006.516128447</v>
+        <v>3676379.71464457</v>
       </c>
       <c r="L50" t="n">
-        <v>1908103.832436495</v>
+        <v>3971398.89647295</v>
       </c>
       <c r="M50" t="n">
-        <v>2115761.325060337</v>
+        <v>3452396.85078709</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2730538.450508279</v>
+        <v>3401961.694751006</v>
       </c>
       <c r="C51" t="n">
-        <v>2713286.713090614</v>
+        <v>3214929.649857633</v>
       </c>
       <c r="D51" t="n">
-        <v>3010575.392442456</v>
+        <v>3518534.051226021</v>
       </c>
       <c r="E51" t="n">
-        <v>2972666.911901347</v>
+        <v>3346043.05369326</v>
       </c>
       <c r="F51" t="n">
-        <v>2943715.552761354</v>
+        <v>3422243.863700198</v>
       </c>
       <c r="G51" t="n">
-        <v>3578358.426082967</v>
+        <v>3557710.570323985</v>
       </c>
       <c r="H51" t="n">
-        <v>3847637.313881173</v>
+        <v>3662047.62294368</v>
       </c>
       <c r="I51" t="n">
-        <v>3856662.260672125</v>
+        <v>4292494.777102849</v>
       </c>
       <c r="J51" t="n">
-        <v>3802201.334796919</v>
+        <v>4261451.853117041</v>
       </c>
       <c r="K51" t="n">
-        <v>3777290.314206959</v>
+        <v>4444921.226812994</v>
       </c>
       <c r="L51" t="n">
-        <v>3580157.4204157</v>
+        <v>4371578.947281744</v>
       </c>
       <c r="M51" t="n">
-        <v>3850940.988596587</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3327143.785416107</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3166973.081691266</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3413610.544453943</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3488590.41111767</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3582417.917238913</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3690586.498791846</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3566885.39926441</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4063445.345523979</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3831086.771049449</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4229650.964568815</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3727373.364428471</v>
-      </c>
-      <c r="M52" t="n">
-        <v>4005375.601255314</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1694171.39204249</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1508011.231470533</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2080768.980133366</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1832093.061696486</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1788969.687675574</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1620566.821700175</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2200161.212943554</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2008224.023110194</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2306785.53271708</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2240874.674508996</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1766774.302788384</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2179349.494502292</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>891615.9313685521</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1208138.290124181</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1069221.973208579</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1234162.606731075</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1127185.519212803</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1419650.371491155</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1243375.485414207</v>
-      </c>
-      <c r="I54" t="n">
-        <v>933014.1785548751</v>
-      </c>
-      <c r="J54" t="n">
-        <v>913610.5427356864</v>
-      </c>
-      <c r="K54" t="n">
-        <v>999771.34896378</v>
-      </c>
-      <c r="L54" t="n">
-        <v>742705.6047522537</v>
-      </c>
-      <c r="M54" t="n">
-        <v>707455.8630958451</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2960757.707263077</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3354036.003317105</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4545020.079684161</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3917477.045074271</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3449969.457151561</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3736143.226161847</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4343448.275573468</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4716406.763820658</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4038953.798936263</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4645703.111931974</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4208109.389568729</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3559134.122912321</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3606496.673020501</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4619797.853511175</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4013077.539037328</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4448283.064089506</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4882116.741348086</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4467354.797272509</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4729432.498160467</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4653003.354962547</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5507083.684242463</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5803718.898828143</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4410197.415644843</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5481655.400139164</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4325373.181357337</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4754782.700465234</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5515800.936233096</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5616290.79064403</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5533917.146633456</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5421801.732763769</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5808029.541711168</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5845655.57439061</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5631270.455663938</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6680079.059578734</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5012862.445214717</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5440499.552826434</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4267843.917164936</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4289507.698630893</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5287135.88549567</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5102815.452642095</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5235807.837019828</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5320691.874752222</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5067481.371034069</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5216819.415006676</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5027386.120872082</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5442585.73106233</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4970116.874334834</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5394600.82738871</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3291089.882435338</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2711569.683353104</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3287367.757421617</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3745155.209311058</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3141993.97154137</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3482076.482076893</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3553956.4872085</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3440447.933519908</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3948554.28365951</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3921342.991229552</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3337064.483648978</v>
-      </c>
-      <c r="M59" t="n">
-        <v>4117244.158381938</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3086364.344161656</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3530352.433588366</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3664994.550541781</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3840106.045235858</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3977037.477586076</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3997413.426122369</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3875910.008613394</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4602998.655616311</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5010026.859267336</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4576661.280572233</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4475536.592304587</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4304334.867989349</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2174455.176474267</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2088323.395775917</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3213270.886764284</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3213609.086924217</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3117322.737365833</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3282200.928943499</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3290031.556824462</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3246365.384095143</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2989796.429608669</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3418702.234841518</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2933394.75532642</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3803530.638650324</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5519779.62434884</v>
-      </c>
-      <c r="C62" t="n">
-        <v>6127108.106566072</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6889661.484478981</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6070711.659513754</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5727377.22949234</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6258024.219262477</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6989236.575971016</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6347088.260595911</v>
-      </c>
-      <c r="J62" t="n">
-        <v>7229499.125211696</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6623029.331400744</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6703142.620089991</v>
-      </c>
-      <c r="M62" t="n">
-        <v>7411641.934907764</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2697193.306122413</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2542332.760156373</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2956432.30811698</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3256682.943249877</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3031788.458602318</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2737617.414576329</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3204122.761768869</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3238913.21336617</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3627828.706027159</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2924609.638614453</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3234138.876057823</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3411619.008322128</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1895602.712650703</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1806509.434744481</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2948807.009914816</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2346154.213834774</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2255130.252030283</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2030969.847026824</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2137690.050293413</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1994967.261778234</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3359491.036506966</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2674342.227648323</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1811302.9602443</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2487618.164330033</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2360466.705440686</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2382484.064950254</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2508697.895667608</v>
-      </c>
-      <c r="E65" t="n">
-        <v>3099090.798862205</v>
-      </c>
-      <c r="F65" t="n">
-        <v>3468976.913510534</v>
-      </c>
-      <c r="G65" t="n">
-        <v>3154127.854073892</v>
-      </c>
-      <c r="H65" t="n">
-        <v>3423656.396768692</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3330000.586201261</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3480895.55459939</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3773303.635448125</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3372149.345488415</v>
-      </c>
-      <c r="M65" t="n">
-        <v>3423082.017426006</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5858759.924540843</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5019981.322278937</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5295059.53659699</v>
-      </c>
-      <c r="E66" t="n">
-        <v>6247970.111852167</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5260769.928244031</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5203441.757247387</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5854738.057479569</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5421102.263659311</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6177334.877567629</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6752166.570337594</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5731678.887874603</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6219379.476806084</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>1033071.754069921</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1028727.053110894</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1415082.325440937</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1649412.870958332</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1312338.246611357</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1278669.917773354</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1356315.485944588</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1390266.207179024</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1651716.05441408</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1564203.786944081</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1294106.447674369</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1498134.296628088</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2814984.634946613</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2947574.661479945</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3037168.444428043</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3415287.990218386</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3541958.682186303</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3919026.588802957</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3520610.699428658</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3751736.208353934</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3970241.676242121</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3820951.322073897</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3808177.249997859</v>
-      </c>
-      <c r="M68" t="n">
-        <v>4085203.998766075</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2572780.195751287</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2837967.75383173</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2748447.509632486</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3101992.675646023</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2921820.953434151</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2975289.760731563</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3105792.900224209</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3221253.665394427</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3884847.909183447</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3870842.428682045</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4003537.594783596</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3916217.929449141</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>39215531.6828721</v>
-      </c>
-      <c r="C70" t="n">
-        <v>51262569.42871733</v>
-      </c>
-      <c r="D70" t="n">
-        <v>45696190.40564322</v>
-      </c>
-      <c r="E70" t="n">
-        <v>58024247.72489995</v>
-      </c>
-      <c r="F70" t="n">
-        <v>52749497.26946227</v>
-      </c>
-      <c r="G70" t="n">
-        <v>64767355.66283368</v>
-      </c>
-      <c r="H70" t="n">
-        <v>60041073.40564279</v>
-      </c>
-      <c r="I70" t="n">
-        <v>72682413.77156407</v>
-      </c>
-      <c r="J70" t="n">
-        <v>67813798.92889141</v>
-      </c>
-      <c r="K70" t="n">
-        <v>80990629.92172852</v>
-      </c>
-      <c r="L70" t="n">
-        <v>73903200.29781546</v>
-      </c>
-      <c r="M70" t="n">
-        <v>87954084.96847291</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>19970518.16902822</v>
-      </c>
-      <c r="C71" t="n">
-        <v>32395696.86740625</v>
-      </c>
-      <c r="D71" t="n">
-        <v>30028606.65302053</v>
-      </c>
-      <c r="E71" t="n">
-        <v>34739677.70108747</v>
-      </c>
-      <c r="F71" t="n">
-        <v>37524835.47935693</v>
-      </c>
-      <c r="G71" t="n">
-        <v>38305710.84217663</v>
-      </c>
-      <c r="H71" t="n">
-        <v>35291686.2341596</v>
-      </c>
-      <c r="I71" t="n">
-        <v>36282073.72857633</v>
-      </c>
-      <c r="J71" t="n">
-        <v>36410946.09600879</v>
-      </c>
-      <c r="K71" t="n">
-        <v>38499831.44471632</v>
-      </c>
-      <c r="L71" t="n">
-        <v>42945283.19545536</v>
-      </c>
-      <c r="M71" t="n">
-        <v>72877915.34510073</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>-739844.0150189882</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3194762.9857707</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4051128.74770543</v>
-      </c>
-      <c r="E72" t="n">
-        <v>889911.6010193867</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5376396.641601348</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-636171.0020325202</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2160645.139007969</v>
-      </c>
-      <c r="I72" t="n">
-        <v>231245.9418329888</v>
-      </c>
-      <c r="J72" t="n">
-        <v>114811.240333917</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-1940421.855738185</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1121360.279205588</v>
-      </c>
-      <c r="M72" t="n">
-        <v>-1019614.743706569</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>11330402.13726353</v>
-      </c>
-      <c r="C73" t="n">
-        <v>12548525.57811745</v>
-      </c>
-      <c r="D73" t="n">
-        <v>13670941.49165036</v>
-      </c>
-      <c r="E73" t="n">
-        <v>13068806.94551465</v>
-      </c>
-      <c r="F73" t="n">
-        <v>13570405.45560696</v>
-      </c>
-      <c r="G73" t="n">
-        <v>12417205.73749723</v>
-      </c>
-      <c r="H73" t="n">
-        <v>13577274.22083877</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13040107.86881175</v>
-      </c>
-      <c r="J73" t="n">
-        <v>12904951.22608691</v>
-      </c>
-      <c r="K73" t="n">
-        <v>13516100.67983576</v>
-      </c>
-      <c r="L73" t="n">
-        <v>12557436.08474685</v>
-      </c>
-      <c r="M73" t="n">
-        <v>15123302.71246489</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>14960121.74120088</v>
-      </c>
-      <c r="C74" t="n">
-        <v>22412232.68642973</v>
-      </c>
-      <c r="D74" t="n">
-        <v>22201928.28354498</v>
-      </c>
-      <c r="E74" t="n">
-        <v>22983911.88220724</v>
-      </c>
-      <c r="F74" t="n">
-        <v>22472555.80454975</v>
-      </c>
-      <c r="G74" t="n">
-        <v>22129618.89895624</v>
-      </c>
-      <c r="H74" t="n">
-        <v>21574146.33648429</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21370914.64753626</v>
-      </c>
-      <c r="J74" t="n">
-        <v>20731943.2306416</v>
-      </c>
-      <c r="K74" t="n">
-        <v>22008483.05825244</v>
-      </c>
-      <c r="L74" t="n">
-        <v>23555678.14001367</v>
-      </c>
-      <c r="M74" t="n">
-        <v>25121840.61048034</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>30553049.84687965</v>
-      </c>
-      <c r="C75" t="n">
-        <v>29121637.24570599</v>
-      </c>
-      <c r="D75" t="n">
-        <v>30709414.62884244</v>
-      </c>
-      <c r="E75" t="n">
-        <v>37371986.96212216</v>
-      </c>
-      <c r="F75" t="n">
-        <v>36242425.40399835</v>
-      </c>
-      <c r="G75" t="n">
-        <v>36528117.02359681</v>
-      </c>
-      <c r="H75" t="n">
-        <v>37543265.21119548</v>
-      </c>
-      <c r="I75" t="n">
-        <v>38209428.81402986</v>
-      </c>
-      <c r="J75" t="n">
-        <v>33293993.40660515</v>
-      </c>
-      <c r="K75" t="n">
-        <v>42156715.56484795</v>
-      </c>
-      <c r="L75" t="n">
-        <v>42152373.82667457</v>
-      </c>
-      <c r="M75" t="n">
-        <v>46068781.96575531</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>19708429.96826934</v>
-      </c>
-      <c r="C76" t="n">
-        <v>21134022.95379321</v>
-      </c>
-      <c r="D76" t="n">
-        <v>21447254.22196203</v>
-      </c>
-      <c r="E76" t="n">
-        <v>22025251.56107519</v>
-      </c>
-      <c r="F76" t="n">
-        <v>20561319.99740884</v>
-      </c>
-      <c r="G76" t="n">
-        <v>21554799.5803609</v>
-      </c>
-      <c r="H76" t="n">
-        <v>21422186.05345866</v>
-      </c>
-      <c r="I76" t="n">
-        <v>21060183.67730942</v>
-      </c>
-      <c r="J76" t="n">
-        <v>20999443.61850925</v>
-      </c>
-      <c r="K76" t="n">
-        <v>21842415.86301174</v>
-      </c>
-      <c r="L76" t="n">
-        <v>21598073.81152709</v>
-      </c>
-      <c r="M76" t="n">
-        <v>23238241.20586238</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>21157650.8647981</v>
-      </c>
-      <c r="C77" t="n">
-        <v>22256510.51632258</v>
-      </c>
-      <c r="D77" t="n">
-        <v>21353008.54970469</v>
-      </c>
-      <c r="E77" t="n">
-        <v>22570630.86488855</v>
-      </c>
-      <c r="F77" t="n">
-        <v>22414569.86282576</v>
-      </c>
-      <c r="G77" t="n">
-        <v>23408525.60074923</v>
-      </c>
-      <c r="H77" t="n">
-        <v>24686097.09897725</v>
-      </c>
-      <c r="I77" t="n">
-        <v>26391243.79110758</v>
-      </c>
-      <c r="J77" t="n">
-        <v>28911268.48172268</v>
-      </c>
-      <c r="K77" t="n">
-        <v>33143100.17985326</v>
-      </c>
-      <c r="L77" t="n">
-        <v>33123433.32529224</v>
-      </c>
-      <c r="M77" t="n">
-        <v>29285109.6495305</v>
+        <v>4182132.956646822</v>
       </c>
     </row>
   </sheetData>
